--- a/data/pca/factorExposure/factorExposure_2015-09-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02662584089934223</v>
+        <v>0.02131778165383933</v>
       </c>
       <c r="C2">
-        <v>-0.03171999593331795</v>
+        <v>-0.04342081774429227</v>
       </c>
       <c r="D2">
-        <v>-0.1183160208898464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1315655694628004</v>
+      </c>
+      <c r="E2">
+        <v>0.03341283718289707</v>
+      </c>
+      <c r="F2">
+        <v>0.009898221870373494</v>
+      </c>
+      <c r="G2">
+        <v>0.1089204095472684</v>
+      </c>
+      <c r="H2">
+        <v>0.002308889085351989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.004808514702951931</v>
+        <v>-0.009885900240730994</v>
       </c>
       <c r="C3">
-        <v>-0.05859598361167201</v>
+        <v>-0.04240101722761996</v>
       </c>
       <c r="D3">
-        <v>-0.06390416389406188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04953432515664755</v>
+      </c>
+      <c r="E3">
+        <v>0.05261157840462184</v>
+      </c>
+      <c r="F3">
+        <v>0.007276250120471846</v>
+      </c>
+      <c r="G3">
+        <v>0.1087839727898691</v>
+      </c>
+      <c r="H3">
+        <v>0.03482947775251789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05046590491955592</v>
+        <v>0.04229660179198454</v>
       </c>
       <c r="C4">
-        <v>-0.06832388669772851</v>
+        <v>-0.08475501558329815</v>
       </c>
       <c r="D4">
-        <v>-0.1294845550404651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1487716131371482</v>
+      </c>
+      <c r="E4">
+        <v>0.04772150091230829</v>
+      </c>
+      <c r="F4">
+        <v>0.07035940208784967</v>
+      </c>
+      <c r="G4">
+        <v>-0.02170178879232913</v>
+      </c>
+      <c r="H4">
+        <v>0.03735183223267256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03302732183391539</v>
+        <v>0.03267523512766917</v>
       </c>
       <c r="C6">
-        <v>-0.02478616227136511</v>
+        <v>-0.03335298563937032</v>
       </c>
       <c r="D6">
-        <v>-0.1499857957118639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1386849439416816</v>
+      </c>
+      <c r="E6">
+        <v>0.001764809074785605</v>
+      </c>
+      <c r="F6">
+        <v>0.06516617338495856</v>
+      </c>
+      <c r="G6">
+        <v>0.05264029765976274</v>
+      </c>
+      <c r="H6">
+        <v>0.01549396947330645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01692991568820212</v>
+        <v>0.01256418409653205</v>
       </c>
       <c r="C7">
-        <v>-0.03168696096246</v>
+        <v>-0.03832415839456607</v>
       </c>
       <c r="D7">
-        <v>-0.1112201714347646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09730251826903247</v>
+      </c>
+      <c r="E7">
+        <v>-0.01356587586446962</v>
+      </c>
+      <c r="F7">
+        <v>0.02846644986709588</v>
+      </c>
+      <c r="G7">
+        <v>0.06142420576176997</v>
+      </c>
+      <c r="H7">
+        <v>0.03800036296716872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01128221498364457</v>
+        <v>0.00436218376752234</v>
       </c>
       <c r="C8">
-        <v>-0.03507159297665277</v>
+        <v>-0.04100432179176419</v>
       </c>
       <c r="D8">
-        <v>-0.06878691804708145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07816646935422639</v>
+      </c>
+      <c r="E8">
+        <v>0.01631803239504282</v>
+      </c>
+      <c r="F8">
+        <v>0.0571077869600265</v>
+      </c>
+      <c r="G8">
+        <v>0.07636097825469529</v>
+      </c>
+      <c r="H8">
+        <v>-0.03404562410294052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03947498564515069</v>
+        <v>0.03133853747261329</v>
       </c>
       <c r="C9">
-        <v>-0.06141916852050604</v>
+        <v>-0.07384669913347461</v>
       </c>
       <c r="D9">
-        <v>-0.1199905237401609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1259827088633848</v>
+      </c>
+      <c r="E9">
+        <v>0.03061084799240474</v>
+      </c>
+      <c r="F9">
+        <v>0.04255196225418028</v>
+      </c>
+      <c r="G9">
+        <v>-0.01746220725143203</v>
+      </c>
+      <c r="H9">
+        <v>0.03574389152345127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1318036115404669</v>
+        <v>0.1829733585578761</v>
       </c>
       <c r="C10">
-        <v>0.1871312964740019</v>
+        <v>0.1654366284469617</v>
       </c>
       <c r="D10">
-        <v>-0.002479653239032871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009492787473396266</v>
+      </c>
+      <c r="E10">
+        <v>0.03062562876042861</v>
+      </c>
+      <c r="F10">
+        <v>0.03940649273731413</v>
+      </c>
+      <c r="G10">
+        <v>-0.03204982208461996</v>
+      </c>
+      <c r="H10">
+        <v>-0.05935633804909789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03345325296439306</v>
+        <v>0.02578661399025202</v>
       </c>
       <c r="C11">
-        <v>-0.04419894790151502</v>
+        <v>-0.0528191356985291</v>
       </c>
       <c r="D11">
-        <v>-0.06218928139685916</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05409189704678512</v>
+      </c>
+      <c r="E11">
+        <v>-0.01901501473131345</v>
+      </c>
+      <c r="F11">
+        <v>-0.009092059066498768</v>
+      </c>
+      <c r="G11">
+        <v>0.02543457470444952</v>
+      </c>
+      <c r="H11">
+        <v>0.03986754706697468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0386077074119364</v>
+        <v>0.02844017152642175</v>
       </c>
       <c r="C12">
-        <v>-0.04651365264665335</v>
+        <v>-0.05451222343018369</v>
       </c>
       <c r="D12">
-        <v>-0.06819341714925641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05382018644024918</v>
+      </c>
+      <c r="E12">
+        <v>-0.011749481105949</v>
+      </c>
+      <c r="F12">
+        <v>-0.01492506504019035</v>
+      </c>
+      <c r="G12">
+        <v>0.02943447259795166</v>
+      </c>
+      <c r="H12">
+        <v>0.0639380410556738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01139165253337418</v>
+        <v>0.01207004937842216</v>
       </c>
       <c r="C13">
-        <v>-0.03807794653754364</v>
+        <v>-0.0468099634171267</v>
       </c>
       <c r="D13">
-        <v>-0.151936804645504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1605720803501532</v>
+      </c>
+      <c r="E13">
+        <v>-0.003639907611055931</v>
+      </c>
+      <c r="F13">
+        <v>0.05647310238667564</v>
+      </c>
+      <c r="G13">
+        <v>0.06163658156580965</v>
+      </c>
+      <c r="H13">
+        <v>0.02250072872950352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.003600027220066811</v>
+        <v>0.004432985970483108</v>
       </c>
       <c r="C14">
-        <v>-0.02573762513161583</v>
+        <v>-0.02865503650825863</v>
       </c>
       <c r="D14">
-        <v>-0.1046522114528623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1051815926464089</v>
+      </c>
+      <c r="E14">
+        <v>0.007260598014252326</v>
+      </c>
+      <c r="F14">
+        <v>0.02864389875356408</v>
+      </c>
+      <c r="G14">
+        <v>0.08105811699718285</v>
+      </c>
+      <c r="H14">
+        <v>0.07207704548078034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002689905458446317</v>
+        <v>0.001458239951628379</v>
       </c>
       <c r="C15">
-        <v>-0.006018850443372601</v>
+        <v>-0.01461123577856013</v>
       </c>
       <c r="D15">
-        <v>-0.01220779616252761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04127684614882753</v>
+      </c>
+      <c r="E15">
+        <v>0.006540225714549173</v>
+      </c>
+      <c r="F15">
+        <v>0.006217242234538357</v>
+      </c>
+      <c r="G15">
+        <v>0.02071612595160751</v>
+      </c>
+      <c r="H15">
+        <v>0.002887058729049025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02972162003431312</v>
+        <v>0.02318880931786618</v>
       </c>
       <c r="C16">
-        <v>-0.0454947374678053</v>
+        <v>-0.05114612149937055</v>
       </c>
       <c r="D16">
-        <v>-0.07215342893156894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06006056835721387</v>
+      </c>
+      <c r="E16">
+        <v>-0.006410423635784271</v>
+      </c>
+      <c r="F16">
+        <v>0.002467908368530312</v>
+      </c>
+      <c r="G16">
+        <v>0.0361760893634133</v>
+      </c>
+      <c r="H16">
+        <v>0.06005036991077642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01109761048911471</v>
+        <v>0.006061091932043516</v>
       </c>
       <c r="C19">
-        <v>-0.03213707799596637</v>
+        <v>-0.02822488162538302</v>
       </c>
       <c r="D19">
-        <v>-0.1504655308879676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1133515279612961</v>
+      </c>
+      <c r="E19">
+        <v>0.03995222081479054</v>
+      </c>
+      <c r="F19">
+        <v>0.007851112759392176</v>
+      </c>
+      <c r="G19">
+        <v>0.05347174397115451</v>
+      </c>
+      <c r="H19">
+        <v>0.05858749012214874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01424891154426046</v>
+        <v>0.01291720762107351</v>
       </c>
       <c r="C20">
-        <v>-0.03612643228960642</v>
+        <v>-0.04128992649748718</v>
       </c>
       <c r="D20">
-        <v>-0.09713990712894938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1059876759260582</v>
+      </c>
+      <c r="E20">
+        <v>0.02774002740887514</v>
+      </c>
+      <c r="F20">
+        <v>0.03093244396240817</v>
+      </c>
+      <c r="G20">
+        <v>0.0478512557409415</v>
+      </c>
+      <c r="H20">
+        <v>0.04791445750385267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0105597331239528</v>
+        <v>0.005169360846737425</v>
       </c>
       <c r="C21">
-        <v>-0.03829239079768774</v>
+        <v>-0.04606595164696758</v>
       </c>
       <c r="D21">
-        <v>-0.1628058917600643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1566254998815332</v>
+      </c>
+      <c r="E21">
+        <v>0.0533152703010789</v>
+      </c>
+      <c r="F21">
+        <v>0.0666245212231969</v>
+      </c>
+      <c r="G21">
+        <v>0.07257919771642239</v>
+      </c>
+      <c r="H21">
+        <v>0.0949276722994041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002484711110254909</v>
+        <v>0.008641946333074045</v>
       </c>
       <c r="C22">
-        <v>-0.05034240458584905</v>
+        <v>-0.05287057043532824</v>
       </c>
       <c r="D22">
-        <v>-0.1404714424811194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2007092058258893</v>
+      </c>
+      <c r="E22">
+        <v>0.005294451674505146</v>
+      </c>
+      <c r="F22">
+        <v>0.07406465783636995</v>
+      </c>
+      <c r="G22">
+        <v>0.0501892500716049</v>
+      </c>
+      <c r="H22">
+        <v>-0.4417736447830059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002659750971652601</v>
+        <v>0.009129347596975758</v>
       </c>
       <c r="C23">
-        <v>-0.05066396650012452</v>
+        <v>-0.05324276955592246</v>
       </c>
       <c r="D23">
-        <v>-0.1399385621498406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2007962126797162</v>
+      </c>
+      <c r="E23">
+        <v>0.007395446141153947</v>
+      </c>
+      <c r="F23">
+        <v>0.07230761835345061</v>
+      </c>
+      <c r="G23">
+        <v>0.04841370873583369</v>
+      </c>
+      <c r="H23">
+        <v>-0.4419740802534228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03667052634111267</v>
+        <v>0.02594455048677648</v>
       </c>
       <c r="C24">
-        <v>-0.05819399345142114</v>
+        <v>-0.06340437993775973</v>
       </c>
       <c r="D24">
-        <v>-0.07150334328061053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05959687499162845</v>
+      </c>
+      <c r="E24">
+        <v>-0.008248617068089563</v>
+      </c>
+      <c r="F24">
+        <v>0.005255138018772722</v>
+      </c>
+      <c r="G24">
+        <v>0.04051933954965427</v>
+      </c>
+      <c r="H24">
+        <v>0.06714178851063364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04136119685681815</v>
+        <v>0.03118051024405138</v>
       </c>
       <c r="C25">
-        <v>-0.05242891628337267</v>
+        <v>-0.06085545650511485</v>
       </c>
       <c r="D25">
-        <v>-0.07134015915814924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06161426250072757</v>
+      </c>
+      <c r="E25">
+        <v>-0.0004120890906376616</v>
+      </c>
+      <c r="F25">
+        <v>-0.004611972347830723</v>
+      </c>
+      <c r="G25">
+        <v>0.02081804085798441</v>
+      </c>
+      <c r="H25">
+        <v>0.04411448925028034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01315592136861503</v>
+        <v>0.01089716610761834</v>
       </c>
       <c r="C26">
-        <v>-0.01681751191469297</v>
+        <v>-0.02567179363000873</v>
       </c>
       <c r="D26">
-        <v>-0.07741979887937885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07314869163754487</v>
+      </c>
+      <c r="E26">
+        <v>0.001224064717532292</v>
+      </c>
+      <c r="F26">
+        <v>0.02581186873904941</v>
+      </c>
+      <c r="G26">
+        <v>0.04443601499755406</v>
+      </c>
+      <c r="H26">
+        <v>0.05581436573275343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1949231239090839</v>
+        <v>0.261180292330915</v>
       </c>
       <c r="C28">
-        <v>0.2498777725040859</v>
+        <v>0.2132522781575714</v>
       </c>
       <c r="D28">
-        <v>0.00431214426476406</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003472961296104231</v>
+      </c>
+      <c r="E28">
+        <v>0.05705586307603546</v>
+      </c>
+      <c r="F28">
+        <v>0.03970368517004802</v>
+      </c>
+      <c r="G28">
+        <v>-0.05488714628233093</v>
+      </c>
+      <c r="H28">
+        <v>-0.03747100013026267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.002991466644295404</v>
+        <v>0.004320172711665566</v>
       </c>
       <c r="C29">
-        <v>-0.02464355838437095</v>
+        <v>-0.02811495466853674</v>
       </c>
       <c r="D29">
-        <v>-0.09896300801533574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1042631946913565</v>
+      </c>
+      <c r="E29">
+        <v>-0.005390866816856201</v>
+      </c>
+      <c r="F29">
+        <v>0.04448391923047189</v>
+      </c>
+      <c r="G29">
+        <v>0.07160414810218545</v>
+      </c>
+      <c r="H29">
+        <v>0.07471600214393137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03037726394646935</v>
+        <v>0.02826715893876542</v>
       </c>
       <c r="C30">
-        <v>-0.06594428098770722</v>
+        <v>-0.07835032354391601</v>
       </c>
       <c r="D30">
-        <v>-0.1614511729867893</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1656280013717642</v>
+      </c>
+      <c r="E30">
+        <v>5.695466395758723e-05</v>
+      </c>
+      <c r="F30">
+        <v>0.0502744341102409</v>
+      </c>
+      <c r="G30">
+        <v>0.05262606172071239</v>
+      </c>
+      <c r="H30">
+        <v>0.02417725064046861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05462517960380799</v>
+        <v>0.03791703135685005</v>
       </c>
       <c r="C31">
-        <v>-0.07701507328941734</v>
+        <v>-0.08449762816092539</v>
       </c>
       <c r="D31">
-        <v>-0.06074826718008086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04587706442605593</v>
+      </c>
+      <c r="E31">
+        <v>0.007926168597371738</v>
+      </c>
+      <c r="F31">
+        <v>0.02502650310961276</v>
+      </c>
+      <c r="G31">
+        <v>0.02142596476209118</v>
+      </c>
+      <c r="H31">
+        <v>0.01538173034235193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02582454053485453</v>
+        <v>0.02375342401586982</v>
       </c>
       <c r="C32">
-        <v>-0.02687028009253102</v>
+        <v>-0.03275347746704892</v>
       </c>
       <c r="D32">
-        <v>-0.09905964604393847</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1205673830470231</v>
+      </c>
+      <c r="E32">
+        <v>0.03581044243452672</v>
+      </c>
+      <c r="F32">
+        <v>0.05441630632855161</v>
+      </c>
+      <c r="G32">
+        <v>0.04305365168614296</v>
+      </c>
+      <c r="H32">
+        <v>0.008823973623702217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02248152808878554</v>
+        <v>0.02098385321128188</v>
       </c>
       <c r="C33">
-        <v>-0.04565220706313092</v>
+        <v>-0.05243356702847771</v>
       </c>
       <c r="D33">
-        <v>-0.1504297028066388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1398122295763233</v>
+      </c>
+      <c r="E33">
+        <v>0.01928996155402352</v>
+      </c>
+      <c r="F33">
+        <v>0.03318597413494587</v>
+      </c>
+      <c r="G33">
+        <v>0.04284582078575216</v>
+      </c>
+      <c r="H33">
+        <v>0.04101930699380547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03483994440946371</v>
+        <v>0.02329206751576902</v>
       </c>
       <c r="C34">
-        <v>-0.06291372255891738</v>
+        <v>-0.06551612440276629</v>
       </c>
       <c r="D34">
-        <v>-0.06805444959720092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04907950852355879</v>
+      </c>
+      <c r="E34">
+        <v>-0.02200422133068836</v>
+      </c>
+      <c r="F34">
+        <v>-0.0168091334616915</v>
+      </c>
+      <c r="G34">
+        <v>0.04384864634469529</v>
+      </c>
+      <c r="H34">
+        <v>0.0506515449093738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001555971881648648</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002097509051658953</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01079188360778313</v>
+      </c>
+      <c r="E35">
+        <v>-5.875063211469439e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.0006339986815769097</v>
+      </c>
+      <c r="G35">
+        <v>0.002275546504106541</v>
+      </c>
+      <c r="H35">
+        <v>0.004607962574880279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01877798214540436</v>
+        <v>0.01699822225995911</v>
       </c>
       <c r="C36">
-        <v>-0.009093100989496903</v>
+        <v>-0.02025261805638127</v>
       </c>
       <c r="D36">
-        <v>-0.09734158450298983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08671934338585191</v>
+      </c>
+      <c r="E36">
+        <v>0.009699707650814923</v>
+      </c>
+      <c r="F36">
+        <v>0.0271785130472273</v>
+      </c>
+      <c r="G36">
+        <v>0.02741201213532898</v>
+      </c>
+      <c r="H36">
+        <v>0.05206380022553427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01857723596491459</v>
+        <v>0.02244649748260802</v>
       </c>
       <c r="C38">
-        <v>-0.01643131768946646</v>
+        <v>-0.02118957070862286</v>
       </c>
       <c r="D38">
-        <v>-0.08464270329750993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08308836667745365</v>
+      </c>
+      <c r="E38">
+        <v>0.02603058233477938</v>
+      </c>
+      <c r="F38">
+        <v>-0.0183554498717005</v>
+      </c>
+      <c r="G38">
+        <v>0.04107626059433197</v>
+      </c>
+      <c r="H38">
+        <v>0.03684024215485963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03745445414568579</v>
+        <v>0.02866833581576952</v>
       </c>
       <c r="C39">
-        <v>-0.05882127865535899</v>
+        <v>-0.07342680737932875</v>
       </c>
       <c r="D39">
-        <v>-0.1080948961672364</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1085922827978833</v>
+      </c>
+      <c r="E39">
+        <v>-0.01759007460615661</v>
+      </c>
+      <c r="F39">
+        <v>0.006123686521933639</v>
+      </c>
+      <c r="G39">
+        <v>0.05960636922035946</v>
+      </c>
+      <c r="H39">
+        <v>0.08483031693290831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01596147743743029</v>
+        <v>0.01107900698625441</v>
       </c>
       <c r="C40">
-        <v>-0.04426233054846775</v>
+        <v>-0.04063341932392341</v>
       </c>
       <c r="D40">
-        <v>-0.100207839930531</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09804190611586812</v>
+      </c>
+      <c r="E40">
+        <v>0.02613573899744673</v>
+      </c>
+      <c r="F40">
+        <v>0.05642746390424288</v>
+      </c>
+      <c r="G40">
+        <v>0.2103279663802266</v>
+      </c>
+      <c r="H40">
+        <v>-0.04564114918881196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03035575995869784</v>
+        <v>0.02799346637361291</v>
       </c>
       <c r="C41">
-        <v>-0.004422903679913301</v>
+        <v>-0.01419564458674607</v>
       </c>
       <c r="D41">
-        <v>-0.07029936531501639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05299760340032109</v>
+      </c>
+      <c r="E41">
+        <v>0.0390912197101731</v>
+      </c>
+      <c r="F41">
+        <v>0.01321011511518888</v>
+      </c>
+      <c r="G41">
+        <v>0.05119311128378159</v>
+      </c>
+      <c r="H41">
+        <v>0.02429333518745388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02343683010962492</v>
+        <v>0.0190164991215975</v>
       </c>
       <c r="C43">
-        <v>-0.01374717424524539</v>
+        <v>-0.02118709389051615</v>
       </c>
       <c r="D43">
-        <v>-0.103216762135368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07916776871652632</v>
+      </c>
+      <c r="E43">
+        <v>0.01656198053365574</v>
+      </c>
+      <c r="F43">
+        <v>0.01073099473825362</v>
+      </c>
+      <c r="G43">
+        <v>0.05012531221480254</v>
+      </c>
+      <c r="H43">
+        <v>0.05190856427119436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01018821572153849</v>
+        <v>0.01105560643866702</v>
       </c>
       <c r="C44">
-        <v>-0.04415078276006516</v>
+        <v>-0.04508184148346045</v>
       </c>
       <c r="D44">
-        <v>-0.09552167382332087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1115578457840851</v>
+      </c>
+      <c r="E44">
+        <v>0.0238253211524896</v>
+      </c>
+      <c r="F44">
+        <v>0.02599030386861167</v>
+      </c>
+      <c r="G44">
+        <v>0.04235349682160354</v>
+      </c>
+      <c r="H44">
+        <v>0.03982950989623355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01439302328127249</v>
+        <v>0.009791795512198021</v>
       </c>
       <c r="C46">
-        <v>-0.02677607414843183</v>
+        <v>-0.03409152592366055</v>
       </c>
       <c r="D46">
-        <v>-0.1049379365634515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09887455093577448</v>
+      </c>
+      <c r="E46">
+        <v>0.00450393406631498</v>
+      </c>
+      <c r="F46">
+        <v>0.03105401495725936</v>
+      </c>
+      <c r="G46">
+        <v>0.06462919758278252</v>
+      </c>
+      <c r="H46">
+        <v>0.08397208835431494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09053357634439127</v>
+        <v>0.06733385238519166</v>
       </c>
       <c r="C47">
-        <v>-0.08788904285723328</v>
+        <v>-0.1041939734691999</v>
       </c>
       <c r="D47">
-        <v>-0.03504217917782867</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02605698778711973</v>
+      </c>
+      <c r="E47">
+        <v>0.0229579553665644</v>
+      </c>
+      <c r="F47">
+        <v>0.002195627669970736</v>
+      </c>
+      <c r="G47">
+        <v>-0.03163830542203049</v>
+      </c>
+      <c r="H47">
+        <v>0.002608288819619538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01164276702180942</v>
+        <v>0.01136324542211842</v>
       </c>
       <c r="C48">
-        <v>-0.02114992197273042</v>
+        <v>-0.02742244373987328</v>
       </c>
       <c r="D48">
-        <v>-0.08674332155018293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08654932061115829</v>
+      </c>
+      <c r="E48">
+        <v>0.03827730771604634</v>
+      </c>
+      <c r="F48">
+        <v>0.03329044010784075</v>
+      </c>
+      <c r="G48">
+        <v>0.04715093723547644</v>
+      </c>
+      <c r="H48">
+        <v>0.06286675958825269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04984079465204918</v>
+        <v>0.03568467711327137</v>
       </c>
       <c r="C50">
-        <v>-0.06125327864119464</v>
+        <v>-0.07123795775006526</v>
       </c>
       <c r="D50">
-        <v>-0.06371807152798947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0559697743407848</v>
+      </c>
+      <c r="E50">
+        <v>0.01538506571698581</v>
+      </c>
+      <c r="F50">
+        <v>0.01673373210722851</v>
+      </c>
+      <c r="G50">
+        <v>0.03325507911093921</v>
+      </c>
+      <c r="H50">
+        <v>-0.007278769438155821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.009247779388200874</v>
+        <v>0.007333694218464589</v>
       </c>
       <c r="C51">
-        <v>-0.01365975606204267</v>
+        <v>-0.02109250874827401</v>
       </c>
       <c r="D51">
-        <v>-0.0852599651884018</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08950063947534881</v>
+      </c>
+      <c r="E51">
+        <v>-0.01419119676312764</v>
+      </c>
+      <c r="F51">
+        <v>0.03777769921573181</v>
+      </c>
+      <c r="G51">
+        <v>0.05501809021078296</v>
+      </c>
+      <c r="H51">
+        <v>0.02919384275571761</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1053960345298022</v>
+        <v>0.08690214246357414</v>
       </c>
       <c r="C53">
-        <v>-0.1071233620871219</v>
+        <v>-0.1272407093565212</v>
       </c>
       <c r="D53">
-        <v>0.007093247607269369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.002696876350859735</v>
+      </c>
+      <c r="E53">
+        <v>0.0715643561027738</v>
+      </c>
+      <c r="F53">
+        <v>0.0725320243950574</v>
+      </c>
+      <c r="G53">
+        <v>0.003591818746540824</v>
+      </c>
+      <c r="H53">
+        <v>-0.02200155677800092</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01835579729856841</v>
+        <v>0.01604558605280232</v>
       </c>
       <c r="C54">
-        <v>-0.02746769085937506</v>
+        <v>-0.03512586845101755</v>
       </c>
       <c r="D54">
-        <v>-0.1115207234340117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09708949675893942</v>
+      </c>
+      <c r="E54">
+        <v>0.01910882195495399</v>
+      </c>
+      <c r="F54">
+        <v>0.01408376925474084</v>
+      </c>
+      <c r="G54">
+        <v>0.07707093878483212</v>
+      </c>
+      <c r="H54">
+        <v>0.04355974655050369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09741085635787883</v>
+        <v>0.07719840057884991</v>
       </c>
       <c r="C55">
-        <v>-0.0826670711541701</v>
+        <v>-0.1021178690296355</v>
       </c>
       <c r="D55">
-        <v>0.01757649153282634</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01757053970349178</v>
+      </c>
+      <c r="E55">
+        <v>0.0256882708595602</v>
+      </c>
+      <c r="F55">
+        <v>0.04433486378951249</v>
+      </c>
+      <c r="G55">
+        <v>0.01474552816709996</v>
+      </c>
+      <c r="H55">
+        <v>-0.04578152243522929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1347310349564879</v>
+        <v>0.1072438645398513</v>
       </c>
       <c r="C56">
-        <v>-0.1152583739392697</v>
+        <v>-0.1495225313258287</v>
       </c>
       <c r="D56">
-        <v>0.01860853956086721</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02044635043579807</v>
+      </c>
+      <c r="E56">
+        <v>0.04956776264509032</v>
+      </c>
+      <c r="F56">
+        <v>0.03400004019892303</v>
+      </c>
+      <c r="G56">
+        <v>0.007304053976267294</v>
+      </c>
+      <c r="H56">
+        <v>-0.06931621333814759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009718373979777171</v>
+        <v>0.0002102429310479168</v>
       </c>
       <c r="C58">
-        <v>-0.03934019416443701</v>
+        <v>-0.05174123986837452</v>
       </c>
       <c r="D58">
-        <v>-0.2022287652971471</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2709547204244239</v>
+      </c>
+      <c r="E58">
+        <v>0.08975797701479135</v>
+      </c>
+      <c r="F58">
+        <v>0.08937413799561887</v>
+      </c>
+      <c r="G58">
+        <v>0.0466559965009631</v>
+      </c>
+      <c r="H58">
+        <v>-0.1607107389207049</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1503688499472194</v>
+        <v>0.1998397157544692</v>
       </c>
       <c r="C59">
-        <v>0.1684816750809013</v>
+        <v>0.1375009039523147</v>
       </c>
       <c r="D59">
-        <v>-0.05299379232094632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06703858149442506</v>
+      </c>
+      <c r="E59">
+        <v>0.03963444396108576</v>
+      </c>
+      <c r="F59">
+        <v>-0.002863378087732884</v>
+      </c>
+      <c r="G59">
+        <v>-0.02057450174417733</v>
+      </c>
+      <c r="H59">
+        <v>-0.01905926243806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2392896836425457</v>
+        <v>0.2104738894626969</v>
       </c>
       <c r="C60">
-        <v>-0.08264091263867675</v>
+        <v>-0.1367291699527758</v>
       </c>
       <c r="D60">
-        <v>-0.1667601908157643</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.09800500398139955</v>
+      </c>
+      <c r="E60">
+        <v>-0.3151117911092229</v>
+      </c>
+      <c r="F60">
+        <v>-0.1218053825083304</v>
+      </c>
+      <c r="G60">
+        <v>-0.2045863663480476</v>
+      </c>
+      <c r="H60">
+        <v>-0.0894094291359455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04186841294100981</v>
+        <v>0.03202412045483535</v>
       </c>
       <c r="C61">
-        <v>-0.05722281518611202</v>
+        <v>-0.06836485274519444</v>
       </c>
       <c r="D61">
-        <v>-0.1134033381663462</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09430258538947731</v>
+      </c>
+      <c r="E61">
+        <v>-0.01799475769600567</v>
+      </c>
+      <c r="F61">
+        <v>-0.003812459561154568</v>
+      </c>
+      <c r="G61">
+        <v>0.03187237370331653</v>
+      </c>
+      <c r="H61">
+        <v>0.0803783782699191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01435651040333372</v>
+        <v>0.01130817568940984</v>
       </c>
       <c r="C63">
-        <v>-0.02652071625477764</v>
+        <v>-0.03484971258915067</v>
       </c>
       <c r="D63">
-        <v>-0.08854673666851647</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07701445684270358</v>
+      </c>
+      <c r="E63">
+        <v>-0.00482944897524789</v>
+      </c>
+      <c r="F63">
+        <v>0.02792411067452322</v>
+      </c>
+      <c r="G63">
+        <v>0.03924189876749792</v>
+      </c>
+      <c r="H63">
+        <v>0.04276416634247199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05530928164810908</v>
+        <v>0.03927341411747826</v>
       </c>
       <c r="C64">
-        <v>-0.07173566170641206</v>
+        <v>-0.08260230690240189</v>
       </c>
       <c r="D64">
-        <v>-0.04811627804949613</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04811549840487774</v>
+      </c>
+      <c r="E64">
+        <v>0.002549694962392443</v>
+      </c>
+      <c r="F64">
+        <v>0.05296206007940699</v>
+      </c>
+      <c r="G64">
+        <v>0.003184519456881191</v>
+      </c>
+      <c r="H64">
+        <v>0.1109783452134024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03039191927902365</v>
+        <v>0.02722023920806398</v>
       </c>
       <c r="C65">
-        <v>-0.02240849018277022</v>
+        <v>-0.0348563890677252</v>
       </c>
       <c r="D65">
-        <v>-0.1132138042093421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1063074214489428</v>
+      </c>
+      <c r="E65">
+        <v>-0.01039489433589737</v>
+      </c>
+      <c r="F65">
+        <v>0.03110735154343596</v>
+      </c>
+      <c r="G65">
+        <v>0.03143670120287292</v>
+      </c>
+      <c r="H65">
+        <v>0.001716327260267761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04020395782765673</v>
+        <v>0.03096131709685591</v>
       </c>
       <c r="C66">
-        <v>-0.06877705889652971</v>
+        <v>-0.08623669143566449</v>
       </c>
       <c r="D66">
-        <v>-0.1231305490072381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.133333248235533</v>
+      </c>
+      <c r="E66">
+        <v>-0.01259111006070582</v>
+      </c>
+      <c r="F66">
+        <v>-0.004096705104032219</v>
+      </c>
+      <c r="G66">
+        <v>0.03963717044268821</v>
+      </c>
+      <c r="H66">
+        <v>0.04907802818718653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04016292878234782</v>
+        <v>0.03774058065385814</v>
       </c>
       <c r="C67">
-        <v>-0.02288686142821283</v>
+        <v>-0.03079025059015958</v>
       </c>
       <c r="D67">
-        <v>-0.047076200261799</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0358688721644262</v>
+      </c>
+      <c r="E67">
+        <v>0.003417011485112004</v>
+      </c>
+      <c r="F67">
+        <v>-0.03162185151774515</v>
+      </c>
+      <c r="G67">
+        <v>0.04076764491490492</v>
+      </c>
+      <c r="H67">
+        <v>0.04997172565992048</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1841540111078503</v>
+        <v>0.230718580981612</v>
       </c>
       <c r="C68">
-        <v>0.1994056893974207</v>
+        <v>0.1565059089649499</v>
       </c>
       <c r="D68">
-        <v>-0.02280769287861541</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02765005810683537</v>
+      </c>
+      <c r="E68">
+        <v>0.01350419362912675</v>
+      </c>
+      <c r="F68">
+        <v>0.03178277287496156</v>
+      </c>
+      <c r="G68">
+        <v>0.02109623906009013</v>
+      </c>
+      <c r="H68">
+        <v>-0.06730474016812497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08347697832314317</v>
+        <v>0.06041347017013401</v>
       </c>
       <c r="C69">
-        <v>-0.1031019628577227</v>
+        <v>-0.1098649618989937</v>
       </c>
       <c r="D69">
-        <v>-0.06489883330586099</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03851997901083911</v>
+      </c>
+      <c r="E69">
+        <v>-0.0006276491278047452</v>
+      </c>
+      <c r="F69">
+        <v>-0.001473476451536117</v>
+      </c>
+      <c r="G69">
+        <v>-0.01023857206554136</v>
+      </c>
+      <c r="H69">
+        <v>0.01413496119446355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1719849011727911</v>
+        <v>0.2195381790483894</v>
       </c>
       <c r="C71">
-        <v>0.208085674094382</v>
+        <v>0.1674217336136345</v>
       </c>
       <c r="D71">
-        <v>-0.02106236559282935</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02716958900078706</v>
+      </c>
+      <c r="E71">
+        <v>0.03003460502446014</v>
+      </c>
+      <c r="F71">
+        <v>0.04615345555165502</v>
+      </c>
+      <c r="G71">
+        <v>0.0375234935219068</v>
+      </c>
+      <c r="H71">
+        <v>-0.04963245817410326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1122066218002283</v>
+        <v>0.09293946289026615</v>
       </c>
       <c r="C72">
-        <v>-0.06585665501116129</v>
+        <v>-0.09804831778717607</v>
       </c>
       <c r="D72">
-        <v>-0.08836340999122487</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08057370526653332</v>
+      </c>
+      <c r="E72">
+        <v>-0.06703828491091755</v>
+      </c>
+      <c r="F72">
+        <v>0.02607712193209898</v>
+      </c>
+      <c r="G72">
+        <v>0.01944280278662646</v>
+      </c>
+      <c r="H72">
+        <v>0.04687075824880418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2137268155801017</v>
+        <v>0.1875197930625791</v>
       </c>
       <c r="C73">
-        <v>-0.04464829895984887</v>
+        <v>-0.10872393902995</v>
       </c>
       <c r="D73">
-        <v>-0.2755858982672816</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1337104764388359</v>
+      </c>
+      <c r="E73">
+        <v>-0.5609347310477718</v>
+      </c>
+      <c r="F73">
+        <v>-0.1836472927851861</v>
+      </c>
+      <c r="G73">
+        <v>-0.3172881189448953</v>
+      </c>
+      <c r="H73">
+        <v>0.04495221614644286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1098427895400903</v>
+        <v>0.08484734652297814</v>
       </c>
       <c r="C74">
-        <v>-0.08988094473369906</v>
+        <v>-0.1139320438084326</v>
       </c>
       <c r="D74">
-        <v>0.03276633509642359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03512704810271673</v>
+      </c>
+      <c r="E74">
+        <v>0.03159890370983622</v>
+      </c>
+      <c r="F74">
+        <v>0.06145930836524032</v>
+      </c>
+      <c r="G74">
+        <v>-0.02419671443372955</v>
+      </c>
+      <c r="H74">
+        <v>-0.03004093532971142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2567400621129567</v>
+        <v>0.2056282934170603</v>
       </c>
       <c r="C75">
-        <v>-0.1559187003807831</v>
+        <v>-0.2095508840198753</v>
       </c>
       <c r="D75">
-        <v>0.1233667199608466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1369639857291605</v>
+      </c>
+      <c r="E75">
+        <v>0.08802832730510557</v>
+      </c>
+      <c r="F75">
+        <v>-0.01250564265181455</v>
+      </c>
+      <c r="G75">
+        <v>0.0155518001257196</v>
+      </c>
+      <c r="H75">
+        <v>-0.05357408799916481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1457578383818584</v>
+        <v>0.1123057739952109</v>
       </c>
       <c r="C76">
-        <v>-0.1177028147478502</v>
+        <v>-0.1473322174880673</v>
       </c>
       <c r="D76">
-        <v>0.02088387348288041</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0289233821246231</v>
+      </c>
+      <c r="E76">
+        <v>0.06263219945992186</v>
+      </c>
+      <c r="F76">
+        <v>0.03273032674986827</v>
+      </c>
+      <c r="G76">
+        <v>0.04581477445407651</v>
+      </c>
+      <c r="H76">
+        <v>-0.01882161409651963</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04258496990871538</v>
+        <v>0.05237456528670886</v>
       </c>
       <c r="C77">
-        <v>-0.07694000283280432</v>
+        <v>-0.08039409819144354</v>
       </c>
       <c r="D77">
-        <v>-0.03139814554672932</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1820103559989988</v>
+      </c>
+      <c r="E77">
+        <v>0.5551105978623994</v>
+      </c>
+      <c r="F77">
+        <v>-0.5552522881435829</v>
+      </c>
+      <c r="G77">
+        <v>-0.4121164725585193</v>
+      </c>
+      <c r="H77">
+        <v>-0.2005882222100625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04134671893808282</v>
+        <v>0.03579370063561303</v>
       </c>
       <c r="C78">
-        <v>-0.06389866549579955</v>
+        <v>-0.07684733776716712</v>
       </c>
       <c r="D78">
-        <v>-0.140362729119027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1402870291100541</v>
+      </c>
+      <c r="E78">
+        <v>-0.002177514273876467</v>
+      </c>
+      <c r="F78">
+        <v>0.03333257535433738</v>
+      </c>
+      <c r="G78">
+        <v>-0.004468694451455403</v>
+      </c>
+      <c r="H78">
+        <v>-0.00315212122888818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.06276942542095282</v>
+        <v>0.05254163157567637</v>
       </c>
       <c r="C79">
-        <v>-0.1077784960725462</v>
+        <v>-0.1225692198202195</v>
       </c>
       <c r="D79">
-        <v>0.1389879904941436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06128043804895228</v>
+      </c>
+      <c r="E79">
+        <v>0.2078956161524256</v>
+      </c>
+      <c r="F79">
+        <v>0.6494214473713468</v>
+      </c>
+      <c r="G79">
+        <v>-0.5902796719060019</v>
+      </c>
+      <c r="H79">
+        <v>0.1382356959859155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02036816529722896</v>
+        <v>0.01660273797947176</v>
       </c>
       <c r="C80">
-        <v>-0.04829689566944832</v>
+        <v>-0.04808027486138272</v>
       </c>
       <c r="D80">
-        <v>-0.0274973079204243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0259745507112019</v>
+      </c>
+      <c r="E80">
+        <v>0.002715100969867875</v>
+      </c>
+      <c r="F80">
+        <v>0.02224544516199644</v>
+      </c>
+      <c r="G80">
+        <v>0.0578653485627194</v>
+      </c>
+      <c r="H80">
+        <v>-0.01752696174171263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1329350954445749</v>
+        <v>0.09886000625295388</v>
       </c>
       <c r="C81">
-        <v>-0.1213083300365623</v>
+        <v>-0.143210257948362</v>
       </c>
       <c r="D81">
-        <v>0.09978673597388871</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09605897064366384</v>
+      </c>
+      <c r="E81">
+        <v>0.0911332339498639</v>
+      </c>
+      <c r="F81">
+        <v>0.04935887887320826</v>
+      </c>
+      <c r="G81">
+        <v>0.04387150102831667</v>
+      </c>
+      <c r="H81">
+        <v>0.009409083444592103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2650844665121405</v>
+        <v>0.1911248001454255</v>
       </c>
       <c r="C82">
-        <v>-0.2465065359177126</v>
+        <v>-0.2744366004738905</v>
       </c>
       <c r="D82">
-        <v>0.231172853705462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2315456957017092</v>
+      </c>
+      <c r="E82">
+        <v>0.01313361350244198</v>
+      </c>
+      <c r="F82">
+        <v>-0.07615971899668041</v>
+      </c>
+      <c r="G82">
+        <v>0.05255288021757999</v>
+      </c>
+      <c r="H82">
+        <v>-0.003684445711446173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02656264035186344</v>
+        <v>0.01499288742872586</v>
       </c>
       <c r="C83">
-        <v>-0.06065439285402146</v>
+        <v>-0.05719115330367251</v>
       </c>
       <c r="D83">
-        <v>-0.05106340339595719</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05749269047990449</v>
+      </c>
+      <c r="E83">
+        <v>0.05721630273422788</v>
+      </c>
+      <c r="F83">
+        <v>-0.07029942706951807</v>
+      </c>
+      <c r="G83">
+        <v>-0.02108207108618165</v>
+      </c>
+      <c r="H83">
+        <v>0.0190778709054073</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.00128840107760648</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.008043047913282168</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02454332903178945</v>
+      </c>
+      <c r="E84">
+        <v>0.01369974080542538</v>
+      </c>
+      <c r="F84">
+        <v>0.02254250139314413</v>
+      </c>
+      <c r="G84">
+        <v>0.02785506637813077</v>
+      </c>
+      <c r="H84">
+        <v>-0.0139742097201111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1681342715922284</v>
+        <v>0.1300263525134844</v>
       </c>
       <c r="C85">
-        <v>-0.1256112319411612</v>
+        <v>-0.166346152040861</v>
       </c>
       <c r="D85">
-        <v>0.06766673058105624</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08964453911814792</v>
+      </c>
+      <c r="E85">
+        <v>0.01742345970707272</v>
+      </c>
+      <c r="F85">
+        <v>0.08697966848897165</v>
+      </c>
+      <c r="G85">
+        <v>-0.002076568749771744</v>
+      </c>
+      <c r="H85">
+        <v>-0.009822504806553714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01969279216416326</v>
+        <v>0.01717029954341923</v>
       </c>
       <c r="C86">
-        <v>-0.0351396185281547</v>
+        <v>-0.036220230364198</v>
       </c>
       <c r="D86">
-        <v>-0.1201958631503021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1236618749142769</v>
+      </c>
+      <c r="E86">
+        <v>0.02197741740786669</v>
+      </c>
+      <c r="F86">
+        <v>-0.04005966847080503</v>
+      </c>
+      <c r="G86">
+        <v>-0.01766172302931292</v>
+      </c>
+      <c r="H86">
+        <v>0.003868362268874818</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0282228973937274</v>
+        <v>0.03034025422716304</v>
       </c>
       <c r="C87">
-        <v>-0.02612539024092063</v>
+        <v>-0.04028410671210798</v>
       </c>
       <c r="D87">
-        <v>-0.119650822117778</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1430701905511942</v>
+      </c>
+      <c r="E87">
+        <v>0.04300835626684507</v>
+      </c>
+      <c r="F87">
+        <v>0.03628547514173892</v>
+      </c>
+      <c r="G87">
+        <v>0.05454872252070162</v>
+      </c>
+      <c r="H87">
+        <v>0.01184734539062164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.06812155804266629</v>
+        <v>0.05388270280692781</v>
       </c>
       <c r="C88">
-        <v>-0.04678912778434219</v>
+        <v>-0.06309766161161331</v>
       </c>
       <c r="D88">
-        <v>-0.04790078006574512</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02177902563492454</v>
+      </c>
+      <c r="E88">
+        <v>-0.003459072646213028</v>
+      </c>
+      <c r="F88">
+        <v>0.03604342502583154</v>
+      </c>
+      <c r="G88">
+        <v>0.02240256768291284</v>
+      </c>
+      <c r="H88">
+        <v>0.03066936283903961</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2759864205552773</v>
+        <v>0.345134997905082</v>
       </c>
       <c r="C89">
-        <v>0.3741174276408086</v>
+        <v>0.2900942134486496</v>
       </c>
       <c r="D89">
-        <v>-0.002520574244385228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01438977053704726</v>
+      </c>
+      <c r="E89">
+        <v>0.05366345714047263</v>
+      </c>
+      <c r="F89">
+        <v>0.01497865226883046</v>
+      </c>
+      <c r="G89">
+        <v>0.07745539455445193</v>
+      </c>
+      <c r="H89">
+        <v>0.1712701934035844</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2226853891304059</v>
+        <v>0.2734078273521374</v>
       </c>
       <c r="C90">
-        <v>0.2753241286174772</v>
+        <v>0.207459308305444</v>
       </c>
       <c r="D90">
-        <v>-0.02247973811088561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0343019742482033</v>
+      </c>
+      <c r="E90">
+        <v>0.03467499516575134</v>
+      </c>
+      <c r="F90">
+        <v>-0.0008353772994780132</v>
+      </c>
+      <c r="G90">
+        <v>0.06300001145918011</v>
+      </c>
+      <c r="H90">
+        <v>-0.05713876235432774</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1707037292754922</v>
+        <v>0.1276696323903505</v>
       </c>
       <c r="C91">
-        <v>-0.1661390313224798</v>
+        <v>-0.1858399300548622</v>
       </c>
       <c r="D91">
-        <v>0.124907010227669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1162570942136987</v>
+      </c>
+      <c r="E91">
+        <v>0.09787469864980283</v>
+      </c>
+      <c r="F91">
+        <v>0.07226442300526807</v>
+      </c>
+      <c r="G91">
+        <v>-0.02583854945998851</v>
+      </c>
+      <c r="H91">
+        <v>-0.01427349933228243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1893429481621999</v>
+        <v>0.2627571634832138</v>
       </c>
       <c r="C92">
-        <v>0.268587487025509</v>
+        <v>0.2311101950119772</v>
       </c>
       <c r="D92">
-        <v>-0.01679848536564591</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03290665628921583</v>
+      </c>
+      <c r="E92">
+        <v>0.100761575503578</v>
+      </c>
+      <c r="F92">
+        <v>0.03121505059584426</v>
+      </c>
+      <c r="G92">
+        <v>0.04878215201636336</v>
+      </c>
+      <c r="H92">
+        <v>0.04434135511484363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2420121329773296</v>
+        <v>0.2895962708848637</v>
       </c>
       <c r="C93">
-        <v>0.2973369924653189</v>
+        <v>0.2228552184837217</v>
       </c>
       <c r="D93">
-        <v>-0.02572650671734006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006195749739380075</v>
+      </c>
+      <c r="E93">
+        <v>-0.02390341268299191</v>
+      </c>
+      <c r="F93">
+        <v>0.03606253864499687</v>
+      </c>
+      <c r="G93">
+        <v>-0.02368247242924356</v>
+      </c>
+      <c r="H93">
+        <v>-0.008208046917937986</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3504031379863529</v>
+        <v>0.2767317550359182</v>
       </c>
       <c r="C94">
-        <v>-0.2110094640463898</v>
+        <v>-0.2909176190196248</v>
       </c>
       <c r="D94">
-        <v>0.3600949834448486</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3758872721910199</v>
+      </c>
+      <c r="E94">
+        <v>0.04331676425610119</v>
+      </c>
+      <c r="F94">
+        <v>-0.07839977066456372</v>
+      </c>
+      <c r="G94">
+        <v>0.3188481032187921</v>
+      </c>
+      <c r="H94">
+        <v>-0.1002799976513661</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06956948652816997</v>
+        <v>0.0623450160768373</v>
       </c>
       <c r="C95">
-        <v>-0.04825966085211101</v>
+        <v>-0.06714297662744122</v>
       </c>
       <c r="D95">
-        <v>-0.0800274499637172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08738141224125219</v>
+      </c>
+      <c r="E95">
+        <v>0.1659250130710769</v>
+      </c>
+      <c r="F95">
+        <v>-0.2787551288461974</v>
+      </c>
+      <c r="G95">
+        <v>-0.02514768960174833</v>
+      </c>
+      <c r="H95">
+        <v>0.564473315083293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-5.342264116256809e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0002664297220442982</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0002526416854396173</v>
+      </c>
+      <c r="E97">
+        <v>-0.0005294628314671206</v>
+      </c>
+      <c r="F97">
+        <v>0.0001602217462814529</v>
+      </c>
+      <c r="G97">
+        <v>0.0002936128142026601</v>
+      </c>
+      <c r="H97">
+        <v>-3.208003845078537e-06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1758473503020306</v>
+        <v>0.157784058996777</v>
       </c>
       <c r="C98">
-        <v>-0.05982454024647899</v>
+        <v>-0.1069969022519944</v>
       </c>
       <c r="D98">
-        <v>-0.1446022474657992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.08612064274843459</v>
+      </c>
+      <c r="E98">
+        <v>-0.3191413136416691</v>
+      </c>
+      <c r="F98">
+        <v>-0.09452909646589486</v>
+      </c>
+      <c r="G98">
+        <v>-0.166415681503331</v>
+      </c>
+      <c r="H98">
+        <v>-0.0227295350472983</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003182217230480293</v>
+        <v>0.004563401386583695</v>
       </c>
       <c r="C101">
-        <v>-0.02419663740358722</v>
+        <v>-0.02751874905788483</v>
       </c>
       <c r="D101">
-        <v>-0.09895705821641403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1039687050672059</v>
+      </c>
+      <c r="E101">
+        <v>-0.004320192755626226</v>
+      </c>
+      <c r="F101">
+        <v>0.04427008713277267</v>
+      </c>
+      <c r="G101">
+        <v>0.07152701337949284</v>
+      </c>
+      <c r="H101">
+        <v>0.07571550574897298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1223046260672796</v>
+        <v>0.08447474638282534</v>
       </c>
       <c r="C102">
-        <v>-0.1286723613508201</v>
+        <v>-0.1350499324193115</v>
       </c>
       <c r="D102">
-        <v>0.09253043425836248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09574409437026701</v>
+      </c>
+      <c r="E102">
+        <v>0.02724926160129863</v>
+      </c>
+      <c r="F102">
+        <v>-0.05213324375179814</v>
+      </c>
+      <c r="G102">
+        <v>0.008673346922292564</v>
+      </c>
+      <c r="H102">
+        <v>0.04289682349684049</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
